--- a/数据整理/stocks/A股/上证主板/600489-中金黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600489-中金黄金.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009454</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信汇融一年定期开放混合A</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>18.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6625</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009455</t>
+          <t>009454</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信汇融一年定期开放混合C</t>
+          <t>创金合信汇融一年定期开放混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>99.35</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.48</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5322</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009768</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信汇悦一年定期开放混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>98.82</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009769</t>
+          <t>009768</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信汇悦一年定期开放混合C</t>
+          <t>创金合信汇悦一年定期开放混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>98.82</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.90</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>001418</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>泰达宏利创益灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001418</t>
+          <t>002273</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合A</t>
+          <t>泰达宏利创益灵活配置混合B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>25.08</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.18</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -660,26 +730,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>009455</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>创金合信汇融一年定期开放混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +766,34 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002273</t>
+          <t>009769</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合B</t>
+          <t>创金合信汇悦一年定期开放混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25.08</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +828,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +858,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>69.19</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.40</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -790,26 +896,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2760</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -818,25 +934,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.42</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.97</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -846,26 +972,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>004475</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>华泰柏瑞富利灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.02</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>69.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -874,26 +1010,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.02</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -912,15 +1058,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>70.77</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>8.25</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600489-中金黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600489-中金黄金.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1083,4 +1084,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3624</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5692</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4433</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600489-中金黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600489-中金黄金.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1558,4 +1559,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2696</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7831</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3886</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3211</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2655</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002654</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600489-中金黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600489-中金黄金.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1995,4 +1996,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600489-中金黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600489-中金黄金.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2004,7 +2005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2015,17 +2016,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2035,14 +2056,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.52</v>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5045</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2051,14 +2094,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.11</v>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4086</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2067,14 +2132,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.17</v>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2744</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2083,13 +2170,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001247</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002091</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600489-中金黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600489-中金黄金.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2403,7 +2404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2414,17 +2415,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2434,14 +2455,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.85</v>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6208</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2450,14 +2493,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.52</v>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5248</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2466,14 +2531,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.11</v>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2796</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2482,14 +2569,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.17</v>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2498,13 +2607,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600489-中金黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600489-中金黄金.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2726,7 +2727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2737,17 +2738,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2757,14 +2778,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.19</v>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8604</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2773,14 +2816,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.85</v>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8329</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2789,14 +2854,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.52</v>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4428</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2805,14 +2892,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.11</v>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4412</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2821,14 +2930,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.17</v>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4290</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2837,13 +2968,411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012233</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安盈债券C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600489-中金黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600489-中金黄金.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>3.67</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>2.19</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.85</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>3.52</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>3.11</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>1.17</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.79</v>
       </c>
     </row>
@@ -600,6 +617,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5417</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4686</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5369</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3188</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +1488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1433,7 +1810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1831,7 +2208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2267,7 +2644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2741,7 +3118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3025,7 +3402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600489-中金黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/600489-中金黄金.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>5.59</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>3.67</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>2.19</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.85</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>3.52</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>3.11</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>1.17</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.79</v>
       </c>
     </row>
@@ -616,7 +633,1293 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6625</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009454</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信汇融一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5322</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009768</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信汇悦一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1774</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009455</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信汇融一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009769</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信汇悦一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1708</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6322</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2980</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6017</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5546</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5177</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2617</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2514</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>57.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -976,7 +2279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1488,7 +2791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1810,7 +3113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2208,7 +3511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2644,7 +3947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3118,7 +4421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3400,360 +4703,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6625</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009454</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>创金合信汇融一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.88</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5322</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.07</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2775</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009768</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>创金合信汇悦一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1774</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001418</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>25.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0689</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002273</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>25.08</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0689</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009455</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>创金合信汇融一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009769</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>创金合信汇悦一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>